--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\Biała Dama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\BD\Biala-Dama\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>czujniki:</t>
   </si>
@@ -74,13 +74,97 @@
     <t>KTIR0711S</t>
   </si>
   <si>
-    <t>L293D</t>
-  </si>
-  <si>
     <t>dipol 7.4V</t>
   </si>
   <si>
     <t>STM32F051C8T6</t>
+  </si>
+  <si>
+    <t>kondensatory</t>
+  </si>
+  <si>
+    <t>uF</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>rezystory</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>TB6612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ile </t>
+  </si>
+  <si>
+    <t>jaki</t>
+  </si>
+  <si>
+    <t>ststus</t>
+  </si>
+  <si>
+    <t>zamówione</t>
+  </si>
+  <si>
+    <t>kupione</t>
+  </si>
+  <si>
+    <t>dzielnik</t>
+  </si>
+  <si>
+    <t>LM117</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>HC-06</t>
+  </si>
+  <si>
+    <t>modol startujcy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uchwyty na silnik </t>
+  </si>
+  <si>
+    <t>guzik reset</t>
+  </si>
+  <si>
+    <t>switch wl/wyl</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>CZN</t>
+  </si>
+  <si>
+    <t>buzzer</t>
+  </si>
+  <si>
+    <t>gold piny</t>
+  </si>
+  <si>
+    <t>1X4</t>
+  </si>
+  <si>
+    <t>1X3</t>
+  </si>
+  <si>
+    <t>1X2</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -441,19 +525,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:G31"/>
+  <dimension ref="D1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
@@ -463,45 +554,126 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0.1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <f>SUM(L6:L11)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
@@ -511,27 +683,77 @@
       <c r="G11" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14">
+        <f>SUM(L13:L16)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>220</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -541,70 +763,187 @@
       <c r="G16">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27">
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>SUM(G2:G30)</f>
-        <v>431.6</v>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>SUM(G2:G31)</f>
+        <v>451.6</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/kosztorys.xlsx
+++ b/kosztorys.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>czujniki:</t>
   </si>
@@ -74,9 +74,6 @@
     <t>KTIR0711S</t>
   </si>
   <si>
-    <t>dipol 7.4V</t>
-  </si>
-  <si>
     <t>STM32F051C8T6</t>
   </si>
   <si>
@@ -165,6 +162,24 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>spolaryzowane -&gt;</t>
+  </si>
+  <si>
+    <t>kupione/ ale może do zmiany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.4V</t>
+  </si>
+  <si>
+    <t>u kolegi</t>
+  </si>
+  <si>
+    <t>kupione/ TYLKO 1</t>
   </si>
 </sst>
 </file>
@@ -525,17 +540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:P36"/>
+  <dimension ref="C1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -543,7 +560,7 @@
   <sheetData>
     <row r="1" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -555,16 +572,16 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.25">
@@ -572,12 +589,12 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -592,12 +609,12 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -605,6 +622,9 @@
       <c r="G7" s="1">
         <v>48</v>
       </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
       <c r="L7">
         <v>8</v>
       </c>
@@ -612,12 +632,15 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -632,7 +655,7 @@
         <v>0.1</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8">
         <f>SUM(L6:L11)</f>
@@ -641,7 +664,7 @@
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -656,7 +679,7 @@
         <v>4.7</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.25">
@@ -667,12 +690,12 @@
         <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -690,12 +713,12 @@
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -704,10 +727,13 @@
         <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
       <c r="L13">
         <v>4</v>
       </c>
@@ -715,10 +741,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
       <c r="L14">
         <v>4</v>
       </c>
@@ -726,7 +755,7 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P14">
         <f>SUM(L13:L16)</f>
@@ -738,11 +767,14 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>30</v>
       </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
       <c r="L15">
         <v>2</v>
       </c>
@@ -750,10 +782,13 @@
         <v>220</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
@@ -763,6 +798,9 @@
       <c r="G16">
         <v>2.2999999999999998</v>
       </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
       <c r="L16">
         <v>2</v>
       </c>
@@ -770,10 +808,13 @@
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
@@ -781,37 +822,43 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>4</v>
       </c>
@@ -819,96 +866,120 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
       <c r="L24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="G26">
         <v>10</v>
       </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
       <c r="L26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G28">
         <v>20</v>
       </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
       <c r="L28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
       <c r="L30">
         <v>3</v>
       </c>
       <c r="M30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="K31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G32">
         <f>SUM(G2:G31)</f>
         <v>451.6</v>
@@ -919,7 +990,7 @@
     </row>
     <row r="33" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="11:13" x14ac:dyDescent="0.25">
@@ -927,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="11:13" x14ac:dyDescent="0.25">
@@ -935,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="11:13" x14ac:dyDescent="0.25">
@@ -943,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
